--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/96.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/96.xlsx
@@ -479,13 +479,13 @@
         <v>-0.113622252646546</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.792984156399697</v>
+        <v>-1.794602885875786</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1165903398478824</v>
+        <v>-0.115690706849679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03949872998345033</v>
+        <v>0.03861983428825638</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1089508538142594</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.72179299516831</v>
+        <v>-1.721087926865989</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1725298246365073</v>
+        <v>-0.1758697502623797</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01833082297623223</v>
+        <v>0.01810759200854244</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1178348657509448</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.72156793443859</v>
+        <v>-1.717397906771663</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2704281924613381</v>
+        <v>-0.2740541708846053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04938310447082936</v>
+        <v>0.05040899104911959</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1395798009353998</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.747273651280813</v>
+        <v>-1.740689557575318</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.326035880401812</v>
+        <v>-0.3287097726486755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08861808176467843</v>
+        <v>0.08860771311317371</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1651549626348096</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.71886903544398</v>
+        <v>-1.716716625375736</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.39788514604341</v>
+        <v>-0.3995130243296506</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1313826700148685</v>
+        <v>0.1327970760642473</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1836332702732857</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.598710392679875</v>
+        <v>-1.598991566111856</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3965323419823828</v>
+        <v>-0.4024223459577388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1316748220190308</v>
+        <v>0.1347421131023968</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1887843560576949</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.302253568381067</v>
+        <v>-1.300358544838411</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5126978340758179</v>
+        <v>-0.5238697511118121</v>
       </c>
       <c r="G8" t="n">
-        <v>0.160364270811906</v>
+        <v>0.1641433393250369</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1795905812772958</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.844793543358368</v>
+        <v>-0.8432333662672464</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5867098784371645</v>
+        <v>-0.602778238666092</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1739716011101552</v>
+        <v>0.1784337807812439</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1561492925831098</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2292841634492676</v>
+        <v>-0.2219175415155046</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5773018519983257</v>
+        <v>-0.6031204041657477</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2248023903103383</v>
+        <v>0.2325288654433827</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1163239461528284</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5207237042549611</v>
+        <v>0.5339425150821218</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7392138345305722</v>
+        <v>-0.7693914897747126</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3242145812548577</v>
+        <v>0.3297984050504862</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06128313311840601</v>
       </c>
       <c r="E12" t="n">
-        <v>1.256381358276661</v>
+        <v>1.272802862577426</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8498625941028211</v>
+        <v>-0.8693477299628913</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4575706876224369</v>
+        <v>0.4602464096313306</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.004994331472784721</v>
       </c>
       <c r="E13" t="n">
-        <v>2.106793757866479</v>
+        <v>2.125834261553199</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.879358967951034</v>
+        <v>-0.898958158977656</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5128197422049829</v>
+        <v>0.5121933536699628</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.07562971416849743</v>
       </c>
       <c r="E14" t="n">
-        <v>2.849660064366664</v>
+        <v>2.876674670981189</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.02496106166636</v>
+        <v>-1.042700604549578</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6508765072282594</v>
+        <v>0.651405308455</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1494936276596892</v>
       </c>
       <c r="E15" t="n">
-        <v>3.630861105241819</v>
+        <v>3.659781104050505</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.174486165174531</v>
+        <v>-1.188150828016394</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7516689486642597</v>
+        <v>0.7517195720804298</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2287803279910628</v>
       </c>
       <c r="E16" t="n">
-        <v>4.447871808890206</v>
+        <v>4.470920711264514</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.30616742936376</v>
+        <v>-1.31468802121793</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8436632843381693</v>
+        <v>0.8410430651108596</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3168314041037223</v>
       </c>
       <c r="E17" t="n">
-        <v>5.088515409967417</v>
+        <v>5.104945453157655</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.44725428030912</v>
+        <v>-1.458649428312804</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9710897418864037</v>
+        <v>0.9677888511838433</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4121788389463634</v>
       </c>
       <c r="E18" t="n">
-        <v>5.660929624619529</v>
+        <v>5.677795151172966</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.599412411378812</v>
+        <v>-1.605660438791419</v>
       </c>
       <c r="G18" t="n">
-        <v>1.094497432095545</v>
+        <v>1.094776775765496</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.511348514693766</v>
       </c>
       <c r="E19" t="n">
-        <v>6.166740501370755</v>
+        <v>6.188152376648672</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.820628201152626</v>
+        <v>-1.834735666405808</v>
       </c>
       <c r="G19" t="n">
-        <v>1.265452098581259</v>
+        <v>1.263319205974671</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6094013667994473</v>
       </c>
       <c r="E20" t="n">
-        <v>6.626789029745573</v>
+        <v>6.6450817706826</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.023887926202976</v>
+        <v>-2.041162099609835</v>
       </c>
       <c r="G20" t="n">
-        <v>1.409032915173842</v>
+        <v>1.405082458950545</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.702195913639827</v>
       </c>
       <c r="E21" t="n">
-        <v>6.967811538053007</v>
+        <v>6.983397451026627</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.32398963646603</v>
+        <v>-2.335864182121638</v>
       </c>
       <c r="G21" t="n">
-        <v>1.547563588562952</v>
+        <v>1.545109267759718</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7862247632298524</v>
       </c>
       <c r="E22" t="n">
-        <v>7.309441527354482</v>
+        <v>7.319558891540379</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.519425908995734</v>
+        <v>-2.533537643693653</v>
       </c>
       <c r="G22" t="n">
-        <v>1.729246759752663</v>
+        <v>1.72340127998671</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8587329351355923</v>
       </c>
       <c r="E23" t="n">
-        <v>7.546026098340994</v>
+        <v>7.549259897769113</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.749455052548557</v>
+        <v>-2.763507624940832</v>
       </c>
       <c r="G23" t="n">
-        <v>1.877091531796393</v>
+        <v>1.874618303452179</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9179316520057833</v>
       </c>
       <c r="E24" t="n">
-        <v>7.695233433176578</v>
+        <v>7.691328721004037</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.941583725248256</v>
+        <v>-2.95403281618136</v>
       </c>
       <c r="G24" t="n">
-        <v>2.007955502278779</v>
+        <v>2.001866664162803</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9614633534546213</v>
       </c>
       <c r="E25" t="n">
-        <v>7.859832726210577</v>
+        <v>7.855781633075616</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.095621631843684</v>
+        <v>-3.10766360072506</v>
       </c>
       <c r="G25" t="n">
-        <v>2.115461950524422</v>
+        <v>2.10852654250912</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9875626420055136</v>
       </c>
       <c r="E26" t="n">
-        <v>7.978578182766656</v>
+        <v>7.971537258474276</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.184172660337013</v>
+        <v>-3.193669735194657</v>
       </c>
       <c r="G26" t="n">
-        <v>2.154733523058876</v>
+        <v>2.147088777296516</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9960249454903982</v>
       </c>
       <c r="E27" t="n">
-        <v>7.886702171704036</v>
+        <v>7.877515546470857</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.245130267493582</v>
+        <v>-3.250230119232211</v>
       </c>
       <c r="G27" t="n">
-        <v>2.197435289479361</v>
+        <v>2.189538036556827</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9887926110049201</v>
       </c>
       <c r="E28" t="n">
-        <v>7.811303777644441</v>
+        <v>7.795982570244529</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.30749496165141</v>
+        <v>-3.312202024474213</v>
       </c>
       <c r="G28" t="n">
-        <v>2.241045837708201</v>
+        <v>2.236852023134881</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9680725198590214</v>
       </c>
       <c r="E29" t="n">
-        <v>7.827710643848963</v>
+        <v>7.813943514333406</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.334114949588079</v>
+        <v>-3.33805717188224</v>
       </c>
       <c r="G29" t="n">
-        <v>2.181972580482444</v>
+        <v>2.173881372784705</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9361462068078217</v>
       </c>
       <c r="E30" t="n">
-        <v>7.661440168160675</v>
+        <v>7.635947923555314</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.258851347998045</v>
+        <v>-3.259579288325744</v>
       </c>
       <c r="G30" t="n">
-        <v>2.181379737584645</v>
+        <v>2.173576412446331</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8949446455821021</v>
       </c>
       <c r="E31" t="n">
-        <v>7.434070278758474</v>
+        <v>7.40381455366771</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.236985996696966</v>
+        <v>-3.236104051398388</v>
       </c>
       <c r="G31" t="n">
-        <v>2.138169907240429</v>
+        <v>2.133157579118913</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8459678223260371</v>
       </c>
       <c r="E32" t="n">
-        <v>7.187315890407866</v>
+        <v>7.1556463691884</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.194104608637178</v>
+        <v>-3.193191862344425</v>
       </c>
       <c r="G32" t="n">
-        <v>2.049645410296539</v>
+        <v>2.043574869800866</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7911558509741393</v>
       </c>
       <c r="E33" t="n">
-        <v>6.998682063185933</v>
+        <v>6.967421188819888</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.115061938534014</v>
+        <v>-3.112466421094112</v>
       </c>
       <c r="G33" t="n">
-        <v>1.983315316858834</v>
+        <v>1.979861945987087</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7321884618411191</v>
       </c>
       <c r="E34" t="n">
-        <v>6.681475737464157</v>
+        <v>6.642410318118444</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.983930822795211</v>
+        <v>-2.978859027407713</v>
       </c>
       <c r="G34" t="n">
-        <v>1.80241101437333</v>
+        <v>1.798726483565095</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6718146824692228</v>
       </c>
       <c r="E35" t="n">
-        <v>6.425134615916423</v>
+        <v>6.386492481520373</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.930449013373543</v>
+        <v>-2.925877657901316</v>
       </c>
       <c r="G35" t="n">
-        <v>1.754591403554252</v>
+        <v>1.746453231964403</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6119452800576765</v>
       </c>
       <c r="E36" t="n">
-        <v>6.007335292819942</v>
+        <v>5.968275972680996</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.807256625163293</v>
+        <v>-2.802551087142182</v>
       </c>
       <c r="G36" t="n">
-        <v>1.685252571418149</v>
+        <v>1.678093932435157</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5551010481771964</v>
       </c>
       <c r="E37" t="n">
-        <v>5.619314736845009</v>
+        <v>5.5851177043411</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.690124408797213</v>
+        <v>-2.688629493218503</v>
       </c>
       <c r="G37" t="n">
-        <v>1.516080703070571</v>
+        <v>1.507555841771663</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5019771031340118</v>
       </c>
       <c r="E38" t="n">
-        <v>5.281918816881519</v>
+        <v>5.252124191822376</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.598038585021791</v>
+        <v>-2.595845920188882</v>
       </c>
       <c r="G38" t="n">
-        <v>1.462959661729198</v>
+        <v>1.452820340398939</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4536295234589551</v>
       </c>
       <c r="E39" t="n">
-        <v>4.915252803640889</v>
+        <v>4.88338688796351</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.498256782147162</v>
+        <v>-2.498223846430618</v>
       </c>
       <c r="G39" t="n">
-        <v>1.324926073691638</v>
+        <v>1.315933403233665</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4095264124941238</v>
       </c>
       <c r="E40" t="n">
-        <v>4.563090704093328</v>
+        <v>4.53113086063173</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.496747838392888</v>
+        <v>-2.498386695251309</v>
       </c>
       <c r="G40" t="n">
-        <v>1.19140467882066</v>
+        <v>1.182333328595387</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3699299329263905</v>
       </c>
       <c r="E41" t="n">
-        <v>4.175601998948519</v>
+        <v>4.143462838807957</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.371881827845641</v>
+        <v>-2.368457733166378</v>
       </c>
       <c r="G41" t="n">
-        <v>1.143717420788437</v>
+        <v>1.1375462433811</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3337599676193218</v>
       </c>
       <c r="E42" t="n">
-        <v>3.799656652531844</v>
+        <v>3.770359722744927</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.301010874969547</v>
+        <v>-2.300351550717982</v>
       </c>
       <c r="G42" t="n">
-        <v>1.041177556613553</v>
+        <v>1.030253267372319</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3005873274725017</v>
       </c>
       <c r="E43" t="n">
-        <v>3.46633500268903</v>
+        <v>3.440732972361854</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.209531312346813</v>
+        <v>-2.209837492526541</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9090723975539845</v>
+        <v>0.9053104068198025</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2695309767896926</v>
       </c>
       <c r="E44" t="n">
-        <v>3.129636831979739</v>
+        <v>3.104677658045855</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.155653969366274</v>
+        <v>-2.152942871958128</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8987690075616795</v>
+        <v>0.8926161277746452</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2404688932890562</v>
       </c>
       <c r="E45" t="n">
-        <v>2.802476600813435</v>
+        <v>2.782773723271765</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.151083223814723</v>
+        <v>-2.147601186671169</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7875389935844898</v>
+        <v>0.7808255966955239</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2133202641629721</v>
       </c>
       <c r="E46" t="n">
-        <v>2.585386314497145</v>
+        <v>2.562888780414616</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.135399723532824</v>
+        <v>-2.132963090429215</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7161148426545851</v>
+        <v>0.7099375660404809</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.187925097988787</v>
       </c>
       <c r="E47" t="n">
-        <v>2.336594791086198</v>
+        <v>2.317609180260384</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.099850496888563</v>
+        <v>-2.09912530120391</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6742059731138726</v>
+        <v>0.6721682281328574</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1641604530045635</v>
       </c>
       <c r="E48" t="n">
-        <v>2.084895165888516</v>
+        <v>2.063312512821109</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.094619817164772</v>
+        <v>-2.090234487498953</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6197839709689968</v>
+        <v>0.6211556825710033</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1413249228769526</v>
       </c>
       <c r="E49" t="n">
-        <v>1.922651996428796</v>
+        <v>1.901967146597562</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.047523572268317</v>
+        <v>-2.045382750692931</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5663506502411297</v>
+        <v>0.5655479946305293</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1194007038412543</v>
       </c>
       <c r="E50" t="n">
-        <v>1.772127842852112</v>
+        <v>1.75107704061483</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.040782119028221</v>
+        <v>-2.037548319600103</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5341895329562046</v>
+        <v>0.5375764224741867</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.09754757747023625</v>
       </c>
       <c r="E51" t="n">
-        <v>1.556767901495757</v>
+        <v>1.536030598486323</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.987237182816509</v>
+        <v>-1.98469747311853</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4524052694110576</v>
+        <v>0.4549956025252066</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07594016323919486</v>
       </c>
       <c r="E52" t="n">
-        <v>1.454126180567856</v>
+        <v>1.433310807711798</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.953311565013752</v>
+        <v>-1.95364763130664</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4084092513145132</v>
+        <v>0.4130446484577984</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.05411511141149906</v>
       </c>
       <c r="E53" t="n">
-        <v>1.296454976501039</v>
+        <v>1.275072987336282</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.879846009578771</v>
+        <v>-1.880340045326937</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3659099785587085</v>
+        <v>0.367642153280673</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03236581387206426</v>
       </c>
       <c r="E54" t="n">
-        <v>1.192930700353884</v>
+        <v>1.173416898222007</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.900053291520111</v>
+        <v>-1.898257075127088</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2859560869644823</v>
+        <v>0.2878102458217964</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.01018037532366004</v>
       </c>
       <c r="E55" t="n">
-        <v>1.183274436199609</v>
+        <v>1.161997353391253</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.93316649498144</v>
+        <v>-1.937493882182967</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2347434874206549</v>
+        <v>0.2351966584834787</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.01172978434874165</v>
       </c>
       <c r="E56" t="n">
-        <v>1.099784834442274</v>
+        <v>1.080535127963429</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.930359640027046</v>
+        <v>-1.933370208487474</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1724303315600128</v>
+        <v>0.1766314651814534</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.03339652096499419</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9690404084125304</v>
+        <v>0.9487782336102831</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.87669149983863</v>
+        <v>-1.880249167146102</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1472338984828738</v>
+        <v>0.1505268602166366</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.05418435344243352</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8696532242157575</v>
+        <v>0.8498094549977595</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.898071659241357</v>
+        <v>-1.904010456870852</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1026102720099556</v>
+        <v>0.1039825935326388</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.07422453560810716</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7095185505355549</v>
+        <v>0.6926206981862499</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.904387387849083</v>
+        <v>-1.907054570968502</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08260243412991233</v>
+        <v>0.08535378630272282</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.09365312215897084</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6145276745767821</v>
+        <v>0.5962434725292288</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.905482195463846</v>
+        <v>-1.91196138281294</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02872509114937263</v>
+        <v>0.02978757296826775</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1128998455729016</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4980608816690335</v>
+        <v>0.4767118282208212</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.90104014317509</v>
+        <v>-1.906569074109811</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01326970120057685</v>
+        <v>0.01307574642537096</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1324575122761064</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3716157864896866</v>
+        <v>0.3477245836607884</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.877342895121397</v>
+        <v>-1.882455860154576</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02602260863688654</v>
+        <v>-0.02385495055172394</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1527029320566306</v>
       </c>
       <c r="E63" t="n">
-        <v>0.284182437636499</v>
+        <v>0.2598697796199679</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.867381060708071</v>
+        <v>-1.874960544958019</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06586628676613017</v>
+        <v>-0.06261723932109327</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1737795565118832</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1513850186088211</v>
+        <v>0.1264368232471185</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.877417915364637</v>
+        <v>-1.883772678895675</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0775566363773602</v>
+        <v>-0.07736939072959854</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1952300848936177</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09138041250967038</v>
+        <v>0.06706226520704857</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.877968063815064</v>
+        <v>-1.881656864068036</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1240880947271463</v>
+        <v>-0.1218289485404715</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2165657834354945</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.06374986201781442</v>
+        <v>-0.0961506781287015</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.852049484656655</v>
+        <v>-1.858970254575715</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1433859849394548</v>
+        <v>-0.1433085250135079</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.236769985146578</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.1510819640386618</v>
+        <v>-0.1814944387433503</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.840804377139451</v>
+        <v>-1.843103778090792</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1680383687729346</v>
+        <v>-0.1669100155209507</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2547572563000675</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.1770231102621102</v>
+        <v>-0.2048025574052773</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.84459137462138</v>
+        <v>-1.849651886476359</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2048842867759615</v>
+        <v>-0.2025245036776233</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2698485025871584</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1562919064594437</v>
+        <v>-0.1755806478616011</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.791903986881176</v>
+        <v>-1.794678516039703</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1850057520793888</v>
+        <v>-0.1825428923866802</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2817911494842015</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2134524524429182</v>
+        <v>-0.2367654504702593</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.82328135609648</v>
+        <v>-1.821272277387272</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2225689367982715</v>
+        <v>-0.2219663351696444</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.290124370637673</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.1310521690142556</v>
+        <v>-0.1494065119396349</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.824665876032698</v>
+        <v>-1.833260268288755</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2157640518077934</v>
+        <v>-0.2125607484135126</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2945548988661512</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.0697197656018244</v>
+        <v>-0.08195843390145094</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.85847621882755</v>
+        <v>-1.866565596763259</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2208794565236794</v>
+        <v>-0.2173181296921474</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2946494655403248</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1143732021817187</v>
+        <v>0.1053262487835147</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.874808674709509</v>
+        <v>-1.882090517669204</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2010521551639535</v>
+        <v>-0.1927017311785958</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2902927506493896</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2430878121992451</v>
+        <v>0.2331723317573519</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.893343554155206</v>
+        <v>-1.900624787194224</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2068793373096044</v>
+        <v>-0.1986618760317778</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2815292862310615</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3887332102826208</v>
+        <v>0.3840715865502354</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.9257468099488</v>
+        <v>-1.934333273236059</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.220991681928201</v>
+        <v>-0.215341376778807</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2683798841926852</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5412542441549775</v>
+        <v>0.5404296314000141</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.989017541271936</v>
+        <v>-2.000734727392943</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1928401831722176</v>
+        <v>-0.1865756879013383</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2513919784631289</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7741231783787395</v>
+        <v>0.7732021981568499</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.973695723951348</v>
+        <v>-1.978643400481129</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1146245655067234</v>
+        <v>-0.1055971295701754</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2308866821074796</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9588754704138471</v>
+        <v>0.9630827032420552</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.01334849690877</v>
+        <v>-2.018735316325809</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.06738315948920259</v>
+        <v>-0.06011961414980997</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2077386308304598</v>
       </c>
       <c r="E79" t="n">
-        <v>1.199567857158257</v>
+        <v>1.201292102911423</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.980409120840314</v>
+        <v>-1.98489813702118</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.02002647846377639</v>
+        <v>-0.007111408133636258</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1820701469316852</v>
       </c>
       <c r="E80" t="n">
-        <v>1.36937648269236</v>
+        <v>1.373630069492001</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.01140345987062</v>
+        <v>-2.011602903931917</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.008276356626225048</v>
+        <v>0.001034692425010804</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1545952089612452</v>
       </c>
       <c r="E81" t="n">
-        <v>1.659531606559007</v>
+        <v>1.666225485986317</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.992361736342546</v>
+        <v>-1.989198077792254</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.005223703639101018</v>
+        <v>0.004029402947843768</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1262346747222766</v>
       </c>
       <c r="E82" t="n">
-        <v>1.900137384567318</v>
+        <v>1.910878697605528</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.920060519479478</v>
+        <v>-1.915669090606892</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07789750602947781</v>
+        <v>0.09056189896147449</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09830446682657448</v>
       </c>
       <c r="E83" t="n">
-        <v>2.162753979958113</v>
+        <v>2.174482754571978</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.878091877712444</v>
+        <v>-1.87386695718461</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09505884411113792</v>
+        <v>0.1061575706659223</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.07188465655292454</v>
       </c>
       <c r="E84" t="n">
-        <v>2.352175824694404</v>
+        <v>2.352294149305693</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.833292594084622</v>
+        <v>-1.826485269411437</v>
       </c>
       <c r="G84" t="n">
-        <v>0.08660839313479357</v>
+        <v>0.09465263694042371</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04805472885714004</v>
       </c>
       <c r="E85" t="n">
-        <v>2.540801113026862</v>
+        <v>2.547896930180149</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.712439251669702</v>
+        <v>-1.707886193817777</v>
       </c>
       <c r="G85" t="n">
-        <v>0.09588406678677805</v>
+        <v>0.1014258060557109</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.02733039610468637</v>
       </c>
       <c r="E86" t="n">
-        <v>2.705484575114251</v>
+        <v>2.712163206524643</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.542085357050585</v>
+        <v>-1.540009796987612</v>
       </c>
       <c r="G86" t="n">
-        <v>0.06126374933320478</v>
+        <v>0.0650891718177686</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.01044800728071429</v>
       </c>
       <c r="E87" t="n">
-        <v>2.809430916369716</v>
+        <v>2.817142753406518</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.360442440625539</v>
+        <v>-1.357420283672252</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1146543756136995</v>
+        <v>0.1161377026995508</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.001883823965859498</v>
       </c>
       <c r="E88" t="n">
-        <v>2.91916540484752</v>
+        <v>2.930472114353075</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.192253764408878</v>
+        <v>-1.191003427021545</v>
       </c>
       <c r="G88" t="n">
-        <v>0.06799666368382659</v>
+        <v>0.064727488856457</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.00849030283521823</v>
       </c>
       <c r="E89" t="n">
-        <v>2.874725364498302</v>
+        <v>2.883764388927708</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.012606508438152</v>
+        <v>-1.011425092087291</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07927653667960517</v>
+        <v>0.07667095554853746</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.00833433930571139</v>
       </c>
       <c r="E90" t="n">
-        <v>2.849072100834279</v>
+        <v>2.853827042430207</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7985487477266535</v>
+        <v>-0.7961224832745497</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01553860611807962</v>
+        <v>0.007510830170721684</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.000701333291268005</v>
       </c>
       <c r="E91" t="n">
-        <v>2.803650088195498</v>
+        <v>2.811326549833049</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5362255241813743</v>
+        <v>-0.5327318985449614</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.006615542623440086</v>
+        <v>-0.01505379518624947</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.01511294294132699</v>
       </c>
       <c r="E92" t="n">
-        <v>2.712443770035946</v>
+        <v>2.719695726882481</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3179745588172329</v>
+        <v>-0.3135288470044164</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05699865004689016</v>
+        <v>-0.0618066547416951</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03732537712957933</v>
       </c>
       <c r="E93" t="n">
-        <v>2.624147993345837</v>
+        <v>2.630300873132872</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09000694715181831</v>
+        <v>-0.08619982228755693</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09950951129555305</v>
+        <v>-0.1071823134090436</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.06213381064515968</v>
       </c>
       <c r="E94" t="n">
-        <v>2.53384313794652</v>
+        <v>2.540059449483936</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1003005024071107</v>
+        <v>0.1045919042887101</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.155109880187906</v>
+        <v>-0.1603814245970395</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08549522578065639</v>
       </c>
       <c r="E95" t="n">
-        <v>2.322647125050323</v>
+        <v>2.329595341399837</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2052428441277048</v>
+        <v>0.2085351959407908</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1695326744309673</v>
+        <v>-0.1762326530650448</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1047922589974215</v>
       </c>
       <c r="E96" t="n">
-        <v>2.178853446141555</v>
+        <v>2.181666400302717</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2870539441826289</v>
+        <v>0.2902005249539721</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2451982137469779</v>
+        <v>-0.250347164100085</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1197582476829802</v>
       </c>
       <c r="E97" t="n">
-        <v>1.987176114742649</v>
+        <v>1.990261703446318</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3862673009865285</v>
+        <v>0.3927409990495323</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2068671388960695</v>
+        <v>-0.2144966366415109</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1315373844105766</v>
       </c>
       <c r="E98" t="n">
-        <v>1.840986667415614</v>
+        <v>1.849118129878019</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4249850655464951</v>
+        <v>0.431945480309544</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3018689934270237</v>
+        <v>-0.3089709097870781</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1416816186894581</v>
       </c>
       <c r="E99" t="n">
-        <v>1.708915053993267</v>
+        <v>1.712499557810515</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4272570200673816</v>
+        <v>0.4313319001087355</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2786322354842762</v>
+        <v>-0.2838610854460373</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1539453567378141</v>
       </c>
       <c r="E100" t="n">
-        <v>1.492955560611668</v>
+        <v>1.498342989949383</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4193469588106361</v>
+        <v>0.4224691427549094</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3952649268161003</v>
+        <v>-0.4041728183000057</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1692604264483515</v>
       </c>
       <c r="E101" t="n">
-        <v>1.437299079017054</v>
+        <v>1.444709005318866</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4304920393368534</v>
+        <v>0.4320790529377518</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4095639071617818</v>
+        <v>-0.4155441793972965</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1921522695071411</v>
       </c>
       <c r="E102" t="n">
-        <v>1.317741208119546</v>
+        <v>1.329474862098825</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4345376431857232</v>
+        <v>0.4364363262524399</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4204607499725626</v>
+        <v>-0.4278578679401631</v>
       </c>
     </row>
   </sheetData>
